--- a/nordson.omu/src/test/java/com/nordson/testData/NorfilePressure_Hydraulic_HOD_HO-DA.xlsx
+++ b/nordson.omu/src/test/java/com/nordson/testData/NorfilePressure_Hydraulic_HOD_HO-DA.xlsx
@@ -18,30 +18,30 @@
     <sheet name="Input_PSI_Runup" sheetId="263" r:id="rId9"/>
     <sheet name="Input_Runup_LineSpeedft_min" sheetId="274" r:id="rId10"/>
     <sheet name="Input_Runup_LineSpeedm_min" sheetId="273" r:id="rId11"/>
-    <sheet name="Output_Runup_Lnspeed_ftmin" r:id="rId41" sheetId="530"/>
-    <sheet name="Output_Runup_Lnspeed_mmin" r:id="rId42" sheetId="531"/>
-    <sheet name="Output_KPA_Manualadjust" r:id="rId43" sheetId="542"/>
-    <sheet name="Output_KPA_Mnladjst_ntv" r:id="rId44" sheetId="543"/>
-    <sheet name="Output_BAR_Manualadjust" r:id="rId45" sheetId="544"/>
-    <sheet name="Output_BAR_Mnladjst_ntv" r:id="rId46" sheetId="545"/>
-    <sheet name="Output_PSI_Manualadjust" r:id="rId47" sheetId="546"/>
-    <sheet name="Output_PSI_Mnladjst_ntv" r:id="rId48" sheetId="547"/>
-    <sheet name="Output_KPA_electronicadjust" r:id="rId32" sheetId="548"/>
-    <sheet name="Output_KPA_electronicadjust_Ntv" r:id="rId33" sheetId="549"/>
-    <sheet name="Output_BAR_electronicadjust" r:id="rId34" sheetId="550"/>
-    <sheet name="Output_BAR_electronicadjust_Ntv" r:id="rId35" sheetId="551"/>
-    <sheet name="Output_PSI_electronicadjust" r:id="rId36" sheetId="552"/>
-    <sheet name="Output_PSI_electronicadjust_Ntv" r:id="rId37" sheetId="553"/>
-    <sheet name="Output_KPA_Runup" r:id="rId38" sheetId="554"/>
-    <sheet name="Output_BAR_Runup" r:id="rId39" sheetId="555"/>
-    <sheet name="Output_PSI_Runup" r:id="rId40" sheetId="556"/>
+    <sheet name="Output_KPA_Manualadjust" r:id="rId43" sheetId="574"/>
+    <sheet name="Output_KPA_Mnladjst_ntv" r:id="rId44" sheetId="575"/>
+    <sheet name="Output_BAR_Manualadjust" r:id="rId45" sheetId="576"/>
+    <sheet name="Output_BAR_Mnladjst_ntv" r:id="rId46" sheetId="577"/>
+    <sheet name="Output_PSI_Manualadjust" r:id="rId47" sheetId="578"/>
+    <sheet name="Output_PSI_Mnladjst_ntv" r:id="rId48" sheetId="579"/>
+    <sheet name="Output_KPA_electronicadjust" r:id="rId32" sheetId="580"/>
+    <sheet name="Output_KPA_electronicadjust_Ntv" r:id="rId33" sheetId="581"/>
+    <sheet name="Output_BAR_electronicadjust" r:id="rId34" sheetId="582"/>
+    <sheet name="Output_BAR_electronicadjust_Ntv" r:id="rId35" sheetId="583"/>
+    <sheet name="Output_PSI_electronicadjust" r:id="rId36" sheetId="584"/>
+    <sheet name="Output_PSI_electronicadjust_Ntv" r:id="rId37" sheetId="585"/>
+    <sheet name="Output_KPA_Runup" r:id="rId38" sheetId="586"/>
+    <sheet name="Output_BAR_Runup" r:id="rId39" sheetId="587"/>
+    <sheet name="Output_PSI_Runup" r:id="rId40" sheetId="588"/>
+    <sheet name="Output_Runup_Lnspeed_ftmin" r:id="rId41" sheetId="589"/>
+    <sheet name="Output_Runup_Lnspeed_mmin" r:id="rId42" sheetId="590"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1644" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1908" uniqueCount="113">
   <si>
     <t>Min_Pressure_KPA_UI</t>
   </si>
@@ -377,6 +377,9 @@
   </si>
   <si>
     <t>70053</t>
+  </si>
+  <si>
+    <t>2000</t>
   </si>
 </sst>
 </file>
@@ -1650,7 +1653,622 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet530.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet574.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet575.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet576.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet577.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet578.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet579.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet580.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet581.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet582.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet583.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet584.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet585.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet586.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet587.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet588.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet589.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -1685,7 +2303,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet531.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet590.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -1713,621 +2331,6 @@
       </c>
       <c r="C2" t="s">
         <v>49</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet542.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet543.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet544.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet545.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet546.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet547.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet548.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet549.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet550.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet551.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet552.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet553.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet554.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet555.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet556.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F2" t="s">
-        <v>106</v>
       </c>
     </row>
   </sheetData>
